--- a/biology/Zoologie/Dendrelaphis_cyanochloris/Dendrelaphis_cyanochloris.xlsx
+++ b/biology/Zoologie/Dendrelaphis_cyanochloris/Dendrelaphis_cyanochloris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrelaphis cyanochloris est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrelaphis cyanochloris est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Bangladesh ;
 en Birmanie ;
 en Inde, dans les États d'Assam, Arunachal Pradesh et dans les iles Andaman ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrelaphis cyanochloris[1] est un serpent arboricole diurne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrelaphis cyanochloris est un serpent arboricole diurne.
 	Dendrelaphis cyanochloris, parc national de Taman Negara, Malaisie continentale
 			Détail du dessus de la tête
 			Détail de la tête
@@ -581,7 +597,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec κύανος, kuanos « bleu foncé », et χλωρός, khlôros « vert », lui a été donné en référence à sa couleur dorsale.
 </t>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wall, 1921 : Remarks on the lndian species of Dendrophis and Dendrelaphis. Records of the Indian Museum, vol. 22, p. 151-162 (texte intégral).</t>
         </is>
